--- a/Нормальное распред.xlsx
+++ b/Нормальное распред.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDENT\4_Kurs\1_semestr\Sys_Mod\Sys_Mod_Lab_Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01674CB8-0666-403F-9559-70656F89C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315AF97-68E2-4490-8003-E11D062F8729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96C51130-9DC7-4DB6-9358-49ECBD5BBC9B}"/>
   </bookViews>
@@ -181,15 +181,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,15 +203,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,6 +232,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,15 +1216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>15238</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>367937</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1522,10 +1550,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211266A0-52D5-4278-A489-B42AB9B83342}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:AA2001"/>
+  <dimension ref="A1:AE2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,54 +1565,62 @@
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.8248196609624898</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -1610,7 +1646,7 @@
         <f>G2/$C$6</f>
         <v>4.1972275726923306E-3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J2">
@@ -1625,10 +1661,10 @@
         <f>((G2-K2)^2)/K2</f>
         <v>1.3324405299724434E-3</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <f>SUM(L2:L21)</f>
         <v>1.0852410990378224E-2</v>
       </c>
@@ -1644,30 +1680,26 @@
         <f>ABS(O2-P2)</f>
         <v>6.6453766932678864E-4</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <f>MAX(Q2:Q21)</f>
         <v>1.6166700329973915E-2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
       <c r="W2">
         <f ca="1">(SUMPRODUCT(OFFSET($A$2,0,0,$C$5-V2,1),OFFSET($A$2,V2,0,$C$5-V2,1)) / ($C$5-V2)) - (SUM(OFFSET($A$2,0,0,$C$5-V2,1)) * SUM(OFFSET($A$2,V2,0,$C$5-V2,1)) / (($C$5-V2)^2))</f>
         <v>-3.7270653942023557E-2</v>
       </c>
-      <c r="AA2" s="4">
-        <f>(SUMPRODUCT(A2:A2000,A3:A2001) / (2000-1)) - (SUM(A2:A2000) * SUM(A3:A2001) / ((2000-1)^2))</f>
-        <v>-3.7270653942023557E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.1802679800983604</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1693,7 +1725,7 @@
         <f>G3/$C$6</f>
         <v>8.3944551453846612E-3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J3">
@@ -1708,10 +1740,10 @@
         <f t="shared" ref="L3:L21" si="4">((G3-K3)^2)/K3</f>
         <v>7.4151288228941866E-4</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>2</f>
         <v>2</v>
       </c>
@@ -1727,26 +1759,30 @@
         <f t="shared" ref="Q3:Q21" si="6">ABS(O3-P3)</f>
         <v>1.8306608544113256E-3</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <f>S2*SQRT(C4)</f>
         <v>7.2299681819379916E-2</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>2</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W6" ca="1" si="7">(SUMPRODUCT(OFFSET($A$2,0,0,$C$5-V3,1),OFFSET($A$2,V3,0,$C$5-V3,1)) / ($C$5-V3)) - (SUM(OFFSET($A$2,0,0,$C$5-V3,1)) * SUM(OFFSET($A$2,V3,0,$C$5-V3,1)) / (($C$5-V3)^2))</f>
         <v>2.6719256901404975E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AE3" s="3">
+        <f>(SUMPRODUCT(A2:A2000,A3:A2001) / (2000-1)) - (SUM(A2:A2000) * SUM(A3:A2001) / ((2000-1)^2))</f>
+        <v>-3.7270653942023557E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.8490628587974101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -1780,10 +1816,10 @@
         <f t="shared" si="4"/>
         <v>3.4536885563507137E-5</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f>C4-N3-1</f>
         <v>17</v>
       </c>
@@ -1799,13 +1835,13 @@
         <f t="shared" si="6"/>
         <v>1.4187860455482726E-3</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>3</v>
       </c>
       <c r="W4">
@@ -1813,11 +1849,11 @@
         <v>2.6039558053842171E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.9980225084494396</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -1862,7 +1898,7 @@
         <f t="shared" si="6"/>
         <v>6.7485425487581047E-4</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>4</v>
       </c>
       <c r="W5">
@@ -1870,11 +1906,11 @@
         <v>1.6837214520297294E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.1502148639247203</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -1908,10 +1944,10 @@
         <f t="shared" si="4"/>
         <v>2.4048481246825653E-3</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f>_xlfn.CHISQ.TEST(G2:G21,K2:K21)</f>
         <v>1</v>
       </c>
@@ -1927,7 +1963,7 @@
         <f t="shared" si="6"/>
         <v>8.2902197392916502E-3</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>5</v>
       </c>
       <c r="W6">
@@ -1935,11 +1971,11 @@
         <v>-2.4866672064103312E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.5493251668546701</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1985,11 +2021,11 @@
         <v>4.9955505868537892E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.3470829806962499</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -2035,7 +2071,7 @@
         <v>2.4068011546310164E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4.97739520070221</v>
       </c>
@@ -2079,7 +2115,7 @@
         <v>1.0722469586098571E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4.59167630385096</v>
       </c>
@@ -2123,7 +2159,7 @@
         <v>1.0127241326207792E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.00954421260123</v>
       </c>
@@ -2167,7 +2203,7 @@
         <v>1.6166700329973915E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.2510923389695998</v>
       </c>
@@ -2211,7 +2247,7 @@
         <v>1.3103685908768536E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.7904910827645901</v>
       </c>
@@ -2255,7 +2291,7 @@
         <v>4.3679910980299885E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.2640808165447099</v>
       </c>
@@ -2299,7 +2335,7 @@
         <v>1.5400474557587529E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.6183184204999304</v>
       </c>
@@ -2343,7 +2379,7 @@
         <v>1.9594520747973077E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8.1672633995372603</v>
       </c>

--- a/Нормальное распред.xlsx
+++ b/Нормальное распред.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDENT\4_Kurs\1_semestr\Sys_Mod\Sys_Mod_Lab_Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315AF97-68E2-4490-8003-E11D062F8729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC1A21-48B8-4A7D-9421-6B8690B72984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96C51130-9DC7-4DB6-9358-49ECBD5BBC9B}"/>
   </bookViews>
@@ -1216,15 +1216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15238</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163693</xdr:rowOff>
+      <xdr:colOff>212462</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>367937</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>31024</xdr:rowOff>
+      <xdr:colOff>565161</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:AE2001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2296,7 +2296,7 @@
         <v>5.2640808165447099</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>$C$2+E14*$C$6</f>
         <v>5.7879328547293261</v>
       </c>
       <c r="E14">
